--- a/Control de Horas/mensuales/Horas_Dedicacion_Mensuales.xlsx
+++ b/Control de Horas/mensuales/Horas_Dedicacion_Mensuales.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luth\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejemplo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Equipo 5</t>
   </si>
@@ -41,9 +45,6 @@
   </si>
   <si>
     <t>Horas trabajadas</t>
-  </si>
-  <si>
-    <t>11h</t>
   </si>
   <si>
     <t>Descripción trabajo</t>
@@ -94,63 +95,15 @@
     <t>Sí que debéis incluir las horas de reuniones, tanto supervisadas (con profesor) como las que hagáis por vuestra cuenta.</t>
   </si>
   <si>
-    <t>Equipo 01</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Beatriz</t>
-  </si>
-  <si>
-    <t>Cosme</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
-    <t>Emilio</t>
-  </si>
-  <si>
-    <t>Felisa</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>Hipólita</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Reunión interna de lanzamiento de proyecto. Reunión de lanzamiento con profesor. Puesta en marcha de GitHub. Creación de plantilla de documentos.</t>
-  </si>
-  <si>
-    <t>Prototipo para probar el funcionamiento de Ionic. Reunión interna de lanzamiento de proyecto. Reunión de lanzamiento con profesor.</t>
-  </si>
-  <si>
-    <t>Reunión interna de lanzamiento de proyecto. Reunión de lanzamiento con profesor. Boceto inicial de la GUI.</t>
-  </si>
-  <si>
-    <t>9h</t>
-  </si>
-  <si>
     <t>Óscar León Barbed Pérez</t>
   </si>
   <si>
-    <t>7h</t>
-  </si>
-  <si>
     <t>Una de las ideas de propuesta, reunión inicial, detalles para la propuesta técnica, finalización de contratos y comunicación con otros grupos.</t>
   </si>
   <si>
     <t>Alberto Gómez Climente</t>
   </si>
   <si>
-    <t>6h</t>
-  </si>
-  <si>
     <t>Reunión inicial, reuniones cliente-proveedor e internas.</t>
   </si>
   <si>
@@ -163,9 +116,6 @@
     <t>Beatriz Martínez Andelo</t>
   </si>
   <si>
-    <t>6 h</t>
-  </si>
-  <si>
     <t>Reuniones cliente-proveedor e internas. Redacción de informes y contrato. Comunicación con otros grupos</t>
   </si>
   <si>
@@ -179,6 +129,33 @@
   </si>
   <si>
     <t xml:space="preserve">Reuniones cliente proveedor. Redacción de propuesta economica y contrato. </t>
+  </si>
+  <si>
+    <t>informe prototipo;creacion, modificacion,maquetacion informe plan de gestion; reuniones; documentación; Trello</t>
+  </si>
+  <si>
+    <t>Reuniones; revision y modificación plan de gestion; documentación</t>
+  </si>
+  <si>
+    <t>Reuniones, modificación plan de gestion;  todolist, maquetado, progrmación del index(lista), programación registro/login y gestión de sesión; diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas</t>
+  </si>
+  <si>
+    <t>Reuniones; creación, comunicación con otros grupos, revision y modificación plan de gestion; reunión,implementación web y BBDD</t>
+  </si>
+  <si>
+    <t>Reuniones; creación, revision y modificación plan de gestion;guía de instalación, comunicación con otros grupos</t>
+  </si>
+  <si>
+    <t>Reunines; creación, revisión y modificación plan de gestion; organización reuniones, documentacion</t>
+  </si>
+  <si>
+    <t>Reuniones; creación, revision y modificación plan de gestion, documentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision y modificación plan de gestion; reuniones,feedback guía de instalación </t>
+  </si>
+  <si>
+    <t>Reuniones; creación, revision y modificación plan de gestion; organización reuniones, documentacion</t>
   </si>
 </sst>
 </file>
@@ -188,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +194,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial1"/>
     </font>
@@ -306,7 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,34 +292,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -674,19 +618,19 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -707,69 +651,69 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>32</v>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="95.25" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -785,33 +729,69 @@
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="81" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -839,7 +819,7 @@
     </row>
     <row r="11" spans="1:10" ht="96.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -853,7 +833,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -881,7 +861,7 @@
     </row>
     <row r="14" spans="1:10" ht="105.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -895,63 +875,63 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" ref="B16:J16" si="0">SUM(B4,B7,B10,B13)</f>
-        <v>0</v>
+        <f>SUM(B4,B7,B10,B13)</f>
+        <v>23.5</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="B16:J16" si="0">SUM(C4,C7,C10,C13)</f>
+        <v>15</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25">
       <c r="A20" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25">
       <c r="A21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -967,227 +947,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.625" style="14" customWidth="1"/>
-    <col min="2" max="9" width="13.75" style="13" customWidth="1"/>
-    <col min="10" max="1024" width="10.625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.35" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="171.75">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.35" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.25">
-      <c r="A9" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39409448818897636" bottom="0.39409448818897636" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Control de Horas/mensuales/Horas_Dedicacion_Mensuales.xlsx
+++ b/Control de Horas/mensuales/Horas_Dedicacion_Mensuales.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Equipo 5</t>
   </si>
@@ -156,6 +156,64 @@
   </si>
   <si>
     <t>Reuniones; creación, revision y modificación plan de gestion; organización reuniones, documentacion</t>
+  </si>
+  <si>
+    <t>1h maquetación, 
+7h documentación
+1h reunión
+1h retoque web
+1h repaso de estado y org.</t>
+  </si>
+  <si>
+    <t>1,5 reuniones
+20min actas
+40min documentación
+2,5h revisión guia instalación
+2 h implementación BBDD
+4,5h población final BBDD</t>
+  </si>
+  <si>
+    <t>4h Implementación
+1h poblado de BBDD
+6h poblacion final BBDD
+1h pruebas</t>
+  </si>
+  <si>
+    <t>2,5 reuniones
+1,5 documentacion</t>
+  </si>
+  <si>
+    <t>2h reunion
+3h funcionalidades de análisis
+1h comentarios
+2h bug fix y pruebas
+1h temas
+1,5h calificaciones
+1,5h modulo
+1h routers perfil privado
+1h eliminar perfil</t>
+  </si>
+  <si>
+    <t>1h reunion
+3h documentacion</t>
+  </si>
+  <si>
+    <t>30 min organización reuniones
+3h documentacion
+1h Reunión
+0,5h manual de usuario</t>
+  </si>
+  <si>
+    <t>2h reunion
+1h documentacion
+1,5 Scripts de instalacion
+2h Perfil publico
+3h finalizar perfil publico y privado</t>
+  </si>
+  <si>
+    <t>1,5 reuniones
+20min actas
+2,66 documentación</t>
   </si>
 </sst>
 </file>
@@ -582,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -807,29 +865,65 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="7">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="96.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
@@ -879,39 +973,39 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B4,B7,B10,B13)</f>
-        <v>23.5</v>
+        <v>34.5</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="B16:J16" si="0">SUM(C4,C7,C10,C13)</f>
-        <v>15</v>
+        <f t="shared" ref="C16:J16" si="0">SUM(C4,C7,C10,C13)</f>
+        <v>24.5</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
